--- a/数据库表设计/字段.xlsx
+++ b/数据库表设计/字段.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E54A87-C20C-41FF-B8F7-826F852421C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72878F6D-7FC7-4139-966D-91BB1F3DAB28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="570" windowWidth="15300" windowHeight="7995" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" tabRatio="720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="参数信息" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,18 @@
     <sheet name="租车信息" sheetId="3" r:id="rId3"/>
     <sheet name="还车信息" sheetId="4" r:id="rId4"/>
     <sheet name="客户信息" sheetId="5" r:id="rId5"/>
-    <sheet name="汽车信息" sheetId="6" r:id="rId6"/>
-    <sheet name="权限信息" sheetId="7" r:id="rId7"/>
+    <sheet name="基本信息" sheetId="6" r:id="rId6"/>
+    <sheet name="品牌" sheetId="9" r:id="rId7"/>
+    <sheet name="系列" sheetId="8" r:id="rId8"/>
+    <sheet name="配置" sheetId="10" r:id="rId9"/>
+    <sheet name="权限信息" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="282">
   <si>
     <t>参数信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,30 +390,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汽车信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汽车等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汽车车牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,14 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作日租金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,14 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>座位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,63 +442,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周末租金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月租金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>维修时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权限信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工牌号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户地址</t>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charaid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -539,7 +466,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>address</t>
+    <t>healthdegree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuranceproceeds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车受损状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -547,27 +514,394 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>workcardnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysuserinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creatime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charnam</t>
+    <t>storageamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platenumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overduedate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaindate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivingyear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>workpalce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returntime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deferredpayment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheelstate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delaytimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delaydays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accidentype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租车信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentcarinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returncar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderingstate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idinformatime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leasetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picktime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picklocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changesnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordertime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientdefaultclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientdefaultcredit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardefaultclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carhealthdegree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushinfomation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payparameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printpara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true or false 1/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还车信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returncarinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false or true 0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientpassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushstate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientaddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>license_plate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short_rent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekly_rent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workday_rent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthly_rent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车，两年半内的车，有定期做保养，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车身可能有划痕，不影响使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在客户的车，在“使用”上有问题。所以价格上，不会因为“受损”这种问题，而降低费用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardata包装类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand.name+series.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个品牌多个系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字为名牌名+系列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>series_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>series_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_series</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -575,103 +909,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>perminfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>permid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charainfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charaid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchasetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>licenseplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>healthdegree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insuranceproceeds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车受损状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyrent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insuranceproceeds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchaseamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usagecounter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damagedstate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initialmileage</t>
+    <t>t_brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_basic_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel_mark</t>
+  </si>
+  <si>
+    <t>drive_way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engine_intake_pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank_capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reversing_radar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>air_bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvd_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车门数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机进气形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有天窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油箱容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位材质类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒车雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气囊数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvd或cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gps定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -679,317 +1083,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>patterninfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>annualinspectiondate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insurancecompany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insuedcondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insuranceindate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insuranceoutdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weekendrent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthrent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maintenancetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storageamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>platenumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>platetype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>overduedate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaindate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drivingyear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>surety</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>occupation</t>
-  </si>
-  <si>
-    <t>workpalce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clientinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>returntime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deferredpayment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wheelstate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delaytimes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delaydays</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accidentype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clientid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rentime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租车信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rentcarinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rental</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>returncar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderingstate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idinformatime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leasetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picktime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picklocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>changesnumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordertime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clientdefaultclass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clientdefaultcredit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardefaultclass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carhealthdegree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pushinfomation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payparameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>printpara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paraname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true or false 1/0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还车信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>returncarinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addamount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false or true 0/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clientname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clientpassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pushstate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clientaddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id有角色外键，角色id有权限外键</t>
+    <t>door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transmission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance_proceeds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insured_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance_out_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health_degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usage_counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damaged_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial_miles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annual_inspection_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1054,17 +1219,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{ECEBA2C4-E3EE-4223-8A2F-999BE998F316}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1074,364 +1268,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>287248</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48A840B-38CB-476A-8592-E2E3D01B7CD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3571875" y="161925"/>
-          <a:ext cx="10736173" cy="4477375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接箭头连接符 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DACE62-708E-4870-BA94-3C03592CE3C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6924675" y="1276350"/>
-          <a:ext cx="3590925" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="矩形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7657FDA-29D7-42CC-B576-7B7FFA010248}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6115050" y="1447800"/>
-          <a:ext cx="800100" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="矩形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23706B9-38D1-4F1E-AE85-CAE068988807}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10553701" y="1095375"/>
-          <a:ext cx="981074" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直接连接符 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE7F251-4C5C-42CF-96A7-83AE56AE03B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6105525" y="2047875"/>
-          <a:ext cx="762000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直接连接符 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B28344-9CE0-4061-8116-B89EC2147F47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9115425" y="1895475"/>
-          <a:ext cx="762000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1758,7 +1594,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1768,15 +1604,13 @@
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1808,7 +1642,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -1820,7 +1654,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -1832,7 +1666,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -1844,7 +1678,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -1856,7 +1690,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -1868,7 +1702,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -1880,7 +1714,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -1892,7 +1726,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -1904,7 +1738,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -1916,7 +1750,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -1933,12 +1767,35 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1949,15 +1806,13 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1989,7 +1844,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
@@ -2003,7 +1858,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -2017,7 +1872,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>37</v>
@@ -2029,7 +1884,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -2041,7 +1896,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>38</v>
@@ -2053,7 +1908,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>39</v>
@@ -2065,7 +1920,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>40</v>
@@ -2077,7 +1932,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>37</v>
@@ -2089,7 +1944,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
@@ -2110,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2121,12 +1976,12 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2142,7 +1997,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -2153,7 +2008,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
@@ -2164,7 +2019,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -2175,7 +2030,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>37</v>
@@ -2186,7 +2041,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -2197,7 +2052,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>26</v>
@@ -2208,7 +2063,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -2219,7 +2074,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
@@ -2230,7 +2085,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -2239,23 +2094,23 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>38</v>
@@ -2266,7 +2121,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
@@ -2286,7 +2141,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2296,12 +2151,12 @@
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2320,7 +2175,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -2334,7 +2189,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -2348,7 +2203,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -2360,7 +2215,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -2372,7 +2227,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -2384,7 +2239,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -2396,7 +2251,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -2408,7 +2263,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>64</v>
@@ -2420,7 +2275,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -2430,12 +2285,12 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -2447,7 +2302,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -2459,7 +2314,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -2477,25 +2332,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2503,251 +2361,276 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2759,26 +2642,413 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D29"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB67D87-CA83-4D29-90BF-9A9BD676075F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2797,329 +3067,28 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3128,32 +3097,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D34"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDFC3CB-789C-492A-88A5-98A9ABA089B5}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3167,261 +3138,369 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>128</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>240</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H19" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H21" t="s">
+        <v>204</v>
+      </c>
+      <c r="I21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7749A956-428C-47F2-8A24-6373402F27F7}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据库表设计/字段.xlsx
+++ b/数据库表设计/字段.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72878F6D-7FC7-4139-966D-91BB1F3DAB28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DC98B5-AC24-44CD-9C4E-63D597A556A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" tabRatio="720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" tabRatio="720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="参数信息" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="系列" sheetId="8" r:id="rId8"/>
     <sheet name="配置" sheetId="10" r:id="rId9"/>
     <sheet name="权限信息" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="283">
   <si>
     <t>参数信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1148,6 +1149,10 @@
   </si>
   <si>
     <t>annual_inspection_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1790,12 +1795,32 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F667DA3A-8B18-4BAB-BE7F-DA327260FD7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
